--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H2">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I2">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J2">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>157.4188559899613</v>
+        <v>18.08993297466333</v>
       </c>
       <c r="R2">
-        <v>1416.769703909652</v>
+        <v>162.80939677197</v>
       </c>
       <c r="S2">
-        <v>0.0102427801344648</v>
+        <v>0.0014275101015834</v>
       </c>
       <c r="T2">
-        <v>0.0102427801344648</v>
+        <v>0.0014275101015834</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H3">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I3">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J3">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>1207.414768497571</v>
+        <v>1709.043735661514</v>
       </c>
       <c r="R3">
-        <v>10866.73291647814</v>
+        <v>15381.39362095362</v>
       </c>
       <c r="S3">
-        <v>0.07856291374404983</v>
+        <v>0.1348638051960524</v>
       </c>
       <c r="T3">
-        <v>0.07856291374404981</v>
+        <v>0.1348638051960524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H4">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I4">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J4">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>200.7583088513947</v>
+        <v>273.8385070975233</v>
       </c>
       <c r="R4">
-        <v>1806.824779662552</v>
+        <v>2464.54656387771</v>
       </c>
       <c r="S4">
-        <v>0.01306275035986125</v>
+        <v>0.02160910356228157</v>
       </c>
       <c r="T4">
-        <v>0.01306275035986125</v>
+        <v>0.02160910356228157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.660188000000001</v>
+        <v>9.427210000000001</v>
       </c>
       <c r="H5">
-        <v>19.980564</v>
+        <v>28.28163</v>
       </c>
       <c r="I5">
-        <v>0.1500148400131262</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="J5">
-        <v>0.1500148400131261</v>
+        <v>0.2188083857550241</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>739.9505254827106</v>
+        <v>771.8481554234534</v>
       </c>
       <c r="R5">
-        <v>6659.554729344396</v>
+        <v>6946.63339881108</v>
       </c>
       <c r="S5">
-        <v>0.04814639577475029</v>
+        <v>0.06090796689510673</v>
       </c>
       <c r="T5">
-        <v>0.04814639577475028</v>
+        <v>0.06090796689510673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>49.230993</v>
       </c>
       <c r="I6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J6">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>387.8712631590276</v>
+        <v>31.48988808799633</v>
       </c>
       <c r="R6">
-        <v>3490.841368431249</v>
+        <v>283.408992791967</v>
       </c>
       <c r="S6">
-        <v>0.02523763779142448</v>
+        <v>0.00248492536740215</v>
       </c>
       <c r="T6">
-        <v>0.02523763779142448</v>
+        <v>0.00248492536740215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>49.230993</v>
       </c>
       <c r="I7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J7">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
         <v>2975.002508237531</v>
@@ -883,10 +883,10 @@
         <v>26775.02257413778</v>
       </c>
       <c r="S7">
-        <v>0.1935746286537718</v>
+        <v>0.2347629556556754</v>
       </c>
       <c r="T7">
-        <v>0.1935746286537717</v>
+        <v>0.2347629556556754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>49.230993</v>
       </c>
       <c r="I8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J8">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>494.6572528060192</v>
+        <v>476.6819177695423</v>
       </c>
       <c r="R8">
-        <v>4451.915275254173</v>
+        <v>4290.137259925881</v>
       </c>
       <c r="S8">
-        <v>0.03218588682116665</v>
+        <v>0.03761585262981514</v>
       </c>
       <c r="T8">
-        <v>0.03218588682116665</v>
+        <v>0.03761585262981515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>49.230993</v>
       </c>
       <c r="I9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="J9">
-        <v>0.3696281815959916</v>
+        <v>0.3808887290954196</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>1823.196739610836</v>
+        <v>1343.587732981265</v>
       </c>
       <c r="R9">
-        <v>16408.77065649752</v>
+        <v>12092.28959683139</v>
       </c>
       <c r="S9">
-        <v>0.1186300283296288</v>
+        <v>0.1060249954425269</v>
       </c>
       <c r="T9">
-        <v>0.1186300283296288</v>
+        <v>0.1060249954425269</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H10">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J10">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N10">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P10">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q10">
-        <v>161.8448718252237</v>
+        <v>13.84118843561967</v>
       </c>
       <c r="R10">
-        <v>1456.603846427013</v>
+        <v>124.570695920577</v>
       </c>
       <c r="S10">
-        <v>0.01053076791577063</v>
+        <v>0.001092233804151733</v>
       </c>
       <c r="T10">
-        <v>0.01053076791577063</v>
+        <v>0.001092233804151733</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H11">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J11">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P11">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q11">
-        <v>1241.36265137026</v>
+        <v>1307.644225279205</v>
       </c>
       <c r="R11">
-        <v>11172.26386233233</v>
+        <v>11768.79802751284</v>
       </c>
       <c r="S11">
-        <v>0.0807718022416113</v>
+        <v>0.1031886267062305</v>
       </c>
       <c r="T11">
-        <v>0.08077180224161129</v>
+        <v>0.1031886267062305</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H12">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J12">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N12">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P12">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q12">
-        <v>206.4028642539153</v>
+        <v>209.5226324483457</v>
       </c>
       <c r="R12">
-        <v>1857.625778285238</v>
+        <v>1885.703692035111</v>
       </c>
       <c r="S12">
-        <v>0.0134300249127173</v>
+        <v>0.0165338188233904</v>
       </c>
       <c r="T12">
-        <v>0.0134300249127173</v>
+        <v>0.0165338188233904</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.847447</v>
+        <v>7.213061</v>
       </c>
       <c r="H13">
-        <v>20.542341</v>
+        <v>21.639183</v>
       </c>
       <c r="I13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="J13">
-        <v>0.1542326832520885</v>
+        <v>0.1674173200514808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N13">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P13">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q13">
-        <v>760.7551026885443</v>
+        <v>590.5658013141586</v>
       </c>
       <c r="R13">
-        <v>6846.795924196898</v>
+        <v>5315.092211827427</v>
       </c>
       <c r="S13">
-        <v>0.04950008818198923</v>
+        <v>0.04660264071770815</v>
       </c>
       <c r="T13">
-        <v>0.04950008818198923</v>
+        <v>0.04660264071770815</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H14">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J14">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N14">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P14">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q14">
-        <v>342.2202326569117</v>
+        <v>19.25376053963256</v>
       </c>
       <c r="R14">
-        <v>3079.982093912205</v>
+        <v>173.283844856693</v>
       </c>
       <c r="S14">
-        <v>0.02226726003455183</v>
+        <v>0.001519349889371541</v>
       </c>
       <c r="T14">
-        <v>0.02226726003455183</v>
+        <v>0.001519349889371541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H15">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J15">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P15">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q15">
-        <v>2624.855582834244</v>
+        <v>1818.996172306065</v>
       </c>
       <c r="R15">
-        <v>23623.70024550819</v>
+        <v>16370.96555075458</v>
       </c>
       <c r="S15">
-        <v>0.1707916021280712</v>
+        <v>0.1435403555306302</v>
       </c>
       <c r="T15">
-        <v>0.1707916021280712</v>
+        <v>0.1435403555306302</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H16">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J16">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N16">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P16">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q16">
-        <v>436.4379014882034</v>
+        <v>291.4560849711666</v>
       </c>
       <c r="R16">
-        <v>3927.94111339383</v>
+        <v>2623.104764740499</v>
       </c>
       <c r="S16">
-        <v>0.02839772554042667</v>
+        <v>0.02299933924835524</v>
       </c>
       <c r="T16">
-        <v>0.02839772554042667</v>
+        <v>0.02299933924835525</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.478895</v>
+        <v>10.03371566666667</v>
       </c>
       <c r="H17">
-        <v>43.436685</v>
+        <v>30.101147</v>
       </c>
       <c r="I17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="J17">
-        <v>0.3261242951387937</v>
+        <v>0.2328855650980756</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N17">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P17">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q17">
-        <v>1608.613144802968</v>
+        <v>821.5055068636502</v>
       </c>
       <c r="R17">
-        <v>14477.51830322671</v>
+        <v>7393.549561772853</v>
       </c>
       <c r="S17">
-        <v>0.104667707435744</v>
+        <v>0.06482652042971856</v>
       </c>
       <c r="T17">
-        <v>0.104667707435744</v>
+        <v>0.06482652042971856</v>
       </c>
     </row>
   </sheetData>
